--- a/Lab_animal_data/data/CFU_cell_counts.xlsx
+++ b/Lab_animal_data/data/CFU_cell_counts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9621C4-FAF9-4B75-8ED3-B0103197A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="2328" windowWidth="19986" windowHeight="12036" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24450" yWindow="1560" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="4" r:id="rId1"/>
@@ -298,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -444,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,7 +600,7 @@
       <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
@@ -2201,9 +2201,9 @@
       <selection activeCell="C6" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2713,11 +2713,11 @@
       <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3599,9 +3599,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4111,7 +4111,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
@@ -4965,7 +4965,7 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -5470,14 +5470,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A5EFEB-40BF-403C-AC07-1EA9F2A07A38}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6896,13 +6896,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.578125" customWidth="1"/>
-    <col min="2" max="2" width="13.26171875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.68359375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7844,7 +7844,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -7872,14 +7872,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d98ea659-6b25-4adc-a0ef-e19d01d5921c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0427c641-4748-4ab5-b10c-ed4f8f0373fa" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8100,27 +8098,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d98ea659-6b25-4adc-a0ef-e19d01d5921c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0427c641-4748-4ab5-b10c-ed4f8f0373fa" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3C5BBE-B211-4B64-93CF-F92DD72D4BA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45BDF5BB-CD4A-4B57-B102-43CB8D453C28}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0427c641-4748-4ab5-b10c-ed4f8f0373fa"/>
-    <ds:schemaRef ds:uri="d98ea659-6b25-4adc-a0ef-e19d01d5921c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8145,9 +8136,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45BDF5BB-CD4A-4B57-B102-43CB8D453C28}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3C5BBE-B211-4B64-93CF-F92DD72D4BA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0427c641-4748-4ab5-b10c-ed4f8f0373fa"/>
+    <ds:schemaRef ds:uri="d98ea659-6b25-4adc-a0ef-e19d01d5921c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>